--- a/public/examples/example.xlsx
+++ b/public/examples/example.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -235,10 +238,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -252,6 +255,9 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
